--- a/SteganalysisDatasets/Dataset/Book1.xlsx
+++ b/SteganalysisDatasets/Dataset/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Classifier</t>
   </si>
@@ -94,33 +94,12 @@
   <si>
     <t>s</t>
   </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Wavelet[15]</t>
-  </si>
-  <si>
-    <t>LPC[19]</t>
-  </si>
-  <si>
-    <t>MFB[18]</t>
-  </si>
-  <si>
-    <t>ΔMFCC[17]</t>
-  </si>
-  <si>
-    <t>MFCC[11]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,12 +134,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -176,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -345,22 +318,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" readingOrder="2"/>
@@ -410,17 +372,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -443,62 +396,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,111 +688,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF47"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="18" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="18" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="27"/>
     </row>
     <row r="3" spans="1:32" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -977,7 +885,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
@@ -999,19 +907,19 @@
         <v>50.25</v>
       </c>
       <c r="H4" s="5">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I4" s="6">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K4" s="10">
-        <v>88.96</v>
+        <v>53.87</v>
       </c>
       <c r="L4" s="4">
-        <v>86.11</v>
+        <v>49.58</v>
       </c>
       <c r="M4" s="5">
         <v>64</v>
@@ -1075,7 +983,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4">
         <v>71</v>
       </c>
@@ -1095,19 +1003,19 @@
         <v>50.25</v>
       </c>
       <c r="H5" s="5">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I5" s="6">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K5" s="10">
-        <v>88.96</v>
+        <v>53.87</v>
       </c>
       <c r="L5" s="4">
-        <v>86.11</v>
+        <v>49.58</v>
       </c>
       <c r="M5" s="5">
         <v>64</v>
@@ -1171,7 +1079,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4">
         <v>42</v>
       </c>
@@ -1191,19 +1099,19 @@
         <v>50.25</v>
       </c>
       <c r="H6" s="5">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I6" s="6">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K6" s="10">
-        <v>88.96</v>
+        <v>53.87</v>
       </c>
       <c r="L6" s="4">
-        <v>86.11</v>
+        <v>49.58</v>
       </c>
       <c r="M6" s="5">
         <v>64</v>
@@ -1267,7 +1175,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4">
         <v>21</v>
       </c>
@@ -1287,19 +1195,19 @@
         <v>50.25</v>
       </c>
       <c r="H7" s="5">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I7" s="6">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K7" s="10">
-        <v>88.96</v>
+        <v>53.87</v>
       </c>
       <c r="L7" s="4">
-        <v>86.11</v>
+        <v>49.58</v>
       </c>
       <c r="M7" s="5">
         <v>64</v>
@@ -1363,7 +1271,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1383,19 +1291,19 @@
         <v>50.25</v>
       </c>
       <c r="H8" s="8">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I8" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="J8" s="8">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K8" s="11">
-        <v>88.96</v>
+        <v>53.87</v>
       </c>
       <c r="L8" s="7">
-        <v>86.11</v>
+        <v>49.58</v>
       </c>
       <c r="M8" s="8">
         <v>64</v>
@@ -1459,13 +1367,13 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="17">
         <v>61</v>
       </c>
       <c r="D9" s="6">
@@ -1557,11 +1465,11 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4">
         <v>71</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="17">
         <v>61</v>
       </c>
       <c r="D10" s="6">
@@ -1653,11 +1561,11 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4">
         <v>42</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="17">
         <v>61</v>
       </c>
       <c r="D11" s="6">
@@ -1749,11 +1657,11 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4">
         <v>21</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="17">
         <v>61</v>
       </c>
       <c r="D12" s="6">
@@ -1845,7 +1753,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7">
         <v>7</v>
       </c>
@@ -1941,7 +1849,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4">
@@ -1963,19 +1871,19 @@
         <v>51.14</v>
       </c>
       <c r="H14" s="5">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I14" s="6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J14" s="5">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K14" s="10">
-        <v>90.23</v>
+        <v>72.69</v>
       </c>
       <c r="L14" s="4">
-        <v>88</v>
+        <v>68.25</v>
       </c>
       <c r="M14" s="5">
         <v>65</v>
@@ -2039,7 +1947,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4">
         <v>71</v>
       </c>
@@ -2059,19 +1967,19 @@
         <v>51.14</v>
       </c>
       <c r="H15" s="5">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I15" s="6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J15" s="5">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K15" s="10">
-        <v>90.23</v>
+        <v>72.69</v>
       </c>
       <c r="L15" s="4">
-        <v>88</v>
+        <v>68.25</v>
       </c>
       <c r="M15" s="5">
         <v>65</v>
@@ -2135,7 +2043,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4">
         <v>42</v>
       </c>
@@ -2155,19 +2063,19 @@
         <v>51.14</v>
       </c>
       <c r="H16" s="5">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I16" s="6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J16" s="5">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K16" s="10">
-        <v>90.23</v>
+        <v>72.69</v>
       </c>
       <c r="L16" s="4">
-        <v>88</v>
+        <v>68.25</v>
       </c>
       <c r="M16" s="5">
         <v>65</v>
@@ -2231,7 +2139,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4">
         <v>21</v>
       </c>
@@ -2251,19 +2159,19 @@
         <v>51.14</v>
       </c>
       <c r="H17" s="5">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I17" s="6">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J17" s="5">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K17" s="10">
-        <v>90.23</v>
+        <v>72.69</v>
       </c>
       <c r="L17" s="4">
-        <v>88</v>
+        <v>68.25</v>
       </c>
       <c r="M17" s="5">
         <v>65</v>
@@ -2327,7 +2235,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7">
         <v>7</v>
       </c>
@@ -2347,19 +2255,19 @@
         <v>51.14</v>
       </c>
       <c r="H18" s="12">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I18" s="13">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J18" s="14">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="K18" s="16">
-        <v>90.23</v>
+        <v>72.69</v>
       </c>
       <c r="L18" s="15">
-        <v>88</v>
+        <v>69.25</v>
       </c>
       <c r="M18" s="12">
         <v>65</v>
@@ -2423,7 +2331,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="4">
@@ -2521,7 +2429,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4">
         <v>71</v>
       </c>
@@ -2617,7 +2525,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4">
         <v>42</v>
       </c>
@@ -2713,7 +2621,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4">
         <v>21</v>
       </c>
@@ -2809,7 +2717,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7">
         <v>7</v>
       </c>
@@ -2904,542 +2812,45 @@
         <v>67.540000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
-        <v>35.1</v>
-      </c>
-      <c r="B28" s="34">
-        <v>73.739999999999995</v>
-      </c>
-      <c r="C28" s="34">
-        <v>74.38</v>
-      </c>
-      <c r="D28" s="34">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E28" s="34">
-        <v>75.42</v>
-      </c>
-      <c r="F28" s="10">
-        <v>63.14</v>
-      </c>
-      <c r="G28" s="34">
-        <v>100</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>34.04</v>
-      </c>
-      <c r="B29" s="34">
-        <v>72.88</v>
-      </c>
-      <c r="C29" s="34">
-        <v>73.39</v>
-      </c>
-      <c r="D29" s="34">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E29" s="34">
-        <v>75.42</v>
-      </c>
-      <c r="F29" s="10">
-        <v>63.14</v>
-      </c>
-      <c r="G29" s="34">
-        <v>71</v>
-      </c>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
-        <v>34.04</v>
-      </c>
-      <c r="B30" s="34">
-        <v>72.63</v>
-      </c>
-      <c r="C30" s="34">
-        <v>77.33</v>
-      </c>
-      <c r="D30" s="34">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E30" s="34">
-        <v>75.42</v>
-      </c>
-      <c r="F30" s="10">
-        <v>63.14</v>
-      </c>
-      <c r="G30" s="34">
-        <v>42</v>
-      </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>34.04</v>
-      </c>
-      <c r="B31" s="34">
-        <v>67.97</v>
-      </c>
-      <c r="C31" s="34">
-        <v>77.83</v>
-      </c>
-      <c r="D31" s="34">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E31" s="34">
-        <v>75.42</v>
-      </c>
-      <c r="F31" s="10">
-        <v>63.14</v>
-      </c>
-      <c r="G31" s="34">
-        <v>21</v>
-      </c>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
-        <v>34.04</v>
-      </c>
-      <c r="B32" s="36">
-        <v>70.06</v>
-      </c>
-      <c r="C32" s="36">
-        <v>77.33</v>
-      </c>
-      <c r="D32" s="36">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E32" s="36">
-        <v>75.42</v>
-      </c>
-      <c r="F32" s="11">
-        <v>63.14</v>
-      </c>
-      <c r="G32" s="36">
-        <v>7</v>
-      </c>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>7.93</v>
-      </c>
-      <c r="B33" s="34">
-        <v>69.7</v>
-      </c>
-      <c r="C33" s="34">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="D33" s="34">
-        <v>75.92</v>
-      </c>
-      <c r="E33" s="34">
-        <v>62.06</v>
-      </c>
-      <c r="F33" s="10">
-        <v>71.36</v>
-      </c>
-      <c r="G33" s="34">
-        <v>100</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
-        <v>7.93</v>
-      </c>
-      <c r="B34" s="34">
-        <v>66.33</v>
-      </c>
-      <c r="C34" s="34">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="D34" s="34">
-        <v>75.92</v>
-      </c>
-      <c r="E34" s="34">
-        <v>61.08</v>
-      </c>
-      <c r="F34" s="10">
-        <v>71.36</v>
-      </c>
-      <c r="G34" s="34">
-        <v>71</v>
-      </c>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>7.93</v>
-      </c>
-      <c r="B35" s="34">
-        <v>64.86</v>
-      </c>
-      <c r="C35" s="34">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="D35" s="34">
-        <v>75.92</v>
-      </c>
-      <c r="E35" s="34">
-        <v>58.62</v>
-      </c>
-      <c r="F35" s="10">
-        <v>71.36</v>
-      </c>
-      <c r="G35" s="34">
-        <v>42</v>
-      </c>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
-        <v>7.93</v>
-      </c>
-      <c r="B36" s="34">
-        <v>61.17</v>
-      </c>
-      <c r="C36" s="34">
-        <v>75.86</v>
-      </c>
-      <c r="D36" s="34">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="E36" s="34">
-        <v>58.62</v>
-      </c>
-      <c r="F36" s="10">
-        <v>71.36</v>
-      </c>
-      <c r="G36" s="34">
-        <v>21</v>
-      </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
-        <v>7.93</v>
-      </c>
-      <c r="B37" s="36">
-        <v>60.68</v>
-      </c>
-      <c r="C37" s="36">
-        <v>73.39</v>
-      </c>
-      <c r="D37" s="36">
-        <v>75.92</v>
-      </c>
-      <c r="E37" s="36">
-        <v>55.66</v>
-      </c>
-      <c r="F37" s="11">
-        <v>71.36</v>
-      </c>
-      <c r="G37" s="36">
-        <v>7</v>
-      </c>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
-        <v>20.63</v>
-      </c>
-      <c r="B38" s="34">
-        <v>73.48</v>
-      </c>
-      <c r="C38" s="34">
-        <v>71</v>
-      </c>
-      <c r="D38" s="34">
-        <v>69.72</v>
-      </c>
-      <c r="E38" s="34">
-        <v>68.55</v>
-      </c>
-      <c r="F38" s="10">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="G38" s="34">
-        <v>100</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>19.57</v>
-      </c>
-      <c r="B39" s="34">
-        <v>71.84</v>
-      </c>
-      <c r="C39" s="34">
-        <v>70.760000000000005</v>
-      </c>
-      <c r="D39" s="34">
-        <v>69.88</v>
-      </c>
-      <c r="E39" s="34">
-        <v>67.56</v>
-      </c>
-      <c r="F39" s="10">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="G39" s="34">
-        <v>71</v>
-      </c>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
-        <v>17.98</v>
-      </c>
-      <c r="B40" s="34">
-        <v>70.86</v>
-      </c>
-      <c r="C40" s="34">
-        <v>68.55</v>
-      </c>
-      <c r="D40" s="34">
-        <v>69.55</v>
-      </c>
-      <c r="E40" s="34">
-        <v>70.27</v>
-      </c>
-      <c r="F40" s="10">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="G40" s="34">
-        <v>42</v>
-      </c>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
-        <v>21.69</v>
-      </c>
-      <c r="B41" s="34">
-        <v>71.84</v>
-      </c>
-      <c r="C41" s="34">
-        <v>68.55</v>
-      </c>
-      <c r="D41" s="34">
-        <v>70</v>
-      </c>
-      <c r="E41" s="34">
-        <v>67.56</v>
-      </c>
-      <c r="F41" s="10">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="G41" s="34">
-        <v>21</v>
-      </c>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
-        <v>17.98</v>
-      </c>
-      <c r="B42" s="36">
-        <v>70.37</v>
-      </c>
-      <c r="C42" s="36">
-        <v>70.27</v>
-      </c>
-      <c r="D42" s="36">
-        <v>70.040000000000006</v>
-      </c>
-      <c r="E42" s="36">
-        <v>68.05</v>
-      </c>
-      <c r="F42" s="10">
-        <v>68.239999999999995</v>
-      </c>
-      <c r="G42" s="36">
-        <v>7</v>
-      </c>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
-        <v>51.06</v>
-      </c>
-      <c r="B43" s="34">
-        <v>73.739999999999995</v>
-      </c>
-      <c r="C43" s="34">
-        <v>74.38</v>
-      </c>
-      <c r="D43" s="34">
-        <v>75.09</v>
-      </c>
-      <c r="E43" s="34">
-        <v>97.04</v>
-      </c>
-      <c r="F43" s="10">
-        <v>93.75</v>
-      </c>
-      <c r="G43" s="34">
-        <v>100</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
-        <v>51.06</v>
-      </c>
-      <c r="B44" s="34">
-        <v>72.88</v>
-      </c>
-      <c r="C44" s="34">
-        <v>73.39</v>
-      </c>
-      <c r="D44" s="34">
-        <v>75.09</v>
-      </c>
-      <c r="E44" s="34">
-        <v>97.04</v>
-      </c>
-      <c r="F44" s="10">
-        <v>95.53</v>
-      </c>
-      <c r="G44" s="34">
-        <v>71</v>
-      </c>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
-        <v>48.93</v>
-      </c>
-      <c r="B45" s="34">
-        <v>72.63</v>
-      </c>
-      <c r="C45" s="34">
-        <v>77.33</v>
-      </c>
-      <c r="D45" s="34">
-        <v>75.09</v>
-      </c>
-      <c r="E45" s="34">
-        <v>91.62</v>
-      </c>
-      <c r="F45" s="10">
-        <v>95.53</v>
-      </c>
-      <c r="G45" s="34">
-        <v>42</v>
-      </c>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
-        <v>51.06</v>
-      </c>
-      <c r="B46" s="34">
-        <v>67.97</v>
-      </c>
-      <c r="C46" s="34">
-        <v>77.83</v>
-      </c>
-      <c r="D46" s="34">
-        <v>75.09</v>
-      </c>
-      <c r="E46" s="34">
-        <v>92.11</v>
-      </c>
-      <c r="F46" s="10">
-        <v>91.96</v>
-      </c>
-      <c r="G46" s="34">
-        <v>21</v>
-      </c>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
-        <v>51.06</v>
-      </c>
-      <c r="B47" s="36">
-        <v>70.06</v>
-      </c>
-      <c r="C47" s="36">
-        <v>77.33</v>
-      </c>
-      <c r="D47" s="36">
-        <v>75.09</v>
-      </c>
-      <c r="E47" s="36">
-        <v>94.08</v>
-      </c>
-      <c r="F47" s="11">
-        <v>91.96</v>
-      </c>
-      <c r="G47" s="36">
-        <v>7</v>
-      </c>
-      <c r="H47" s="46"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>AVERAGE(G4:G23)</f>
+        <v>65.575000000000017</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(K4:K23)</f>
+        <v>69.073000000000008</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(P4:P23)</f>
+        <v>63.527999999999999</v>
+      </c>
+      <c r="V24">
+        <f>AVERAGE(U4:U23)</f>
+        <v>62.960000000000015</v>
+      </c>
+      <c r="Z24">
+        <f>AVERAGE(Y4:Y23)</f>
+        <v>53.05</v>
+      </c>
+      <c r="AE24">
+        <f>AVERAGE(AD4:AD23)</f>
+        <v>47.65</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="H33:H37"/>
+  <mergeCells count="18">
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A2:A3"/>
@@ -3447,17 +2858,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AB2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
